--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majin\Documents\GitHub\SimplerMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -982,13 +982,13 @@
   <dimension ref="B1:BO8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
